--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A976CAD-0FB7-4FD4-905E-4C67BC288F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9C8E4-7863-4007-8A48-77575D3E62B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Depth, m</t>
   </si>
@@ -101,15 +101,15 @@
     <t>ST-07</t>
   </si>
   <si>
+    <t>ST-08</t>
+  </si>
+  <si>
     <t>SS-10</t>
   </si>
   <si>
     <t>SS-11</t>
   </si>
   <si>
-    <t>SS-14</t>
-  </si>
-  <si>
     <t>SS-15</t>
   </si>
   <si>
@@ -122,9 +122,42 @@
     <t>SS-18</t>
   </si>
   <si>
+    <t>SS-19</t>
+  </si>
+  <si>
+    <t>SS-20</t>
+  </si>
+  <si>
+    <t>SS-21</t>
+  </si>
+  <si>
+    <t>SS-22</t>
+  </si>
+  <si>
+    <t>SS-23</t>
+  </si>
+  <si>
+    <t>SS-24</t>
+  </si>
+  <si>
+    <t>SS-25</t>
+  </si>
+  <si>
+    <t>SS-26</t>
+  </si>
+  <si>
+    <t>SS-27</t>
+  </si>
+  <si>
+    <t>SS-28</t>
+  </si>
+  <si>
     <t>SM</t>
   </si>
   <si>
+    <t>CL</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -143,43 +176,19 @@
     <t>SS-05</t>
   </si>
   <si>
-    <t>SS-08</t>
-  </si>
-  <si>
     <t>SS-09</t>
   </si>
   <si>
-    <t>SM/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>No Recovery</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>DB-12</t>
-  </si>
-  <si>
-    <t>DB-13</t>
-  </si>
-  <si>
-    <t>Decomposed Granite</t>
-  </si>
-  <si>
-    <t>SC/Decomposed Granite</t>
-  </si>
-  <si>
-    <t>DB-19</t>
-  </si>
-  <si>
-    <t>DB-20</t>
-  </si>
-  <si>
-    <t>DB-21</t>
-  </si>
-  <si>
-    <t>DB-22</t>
+    <t>ST-12</t>
+  </si>
+  <si>
+    <t>ST-13</t>
+  </si>
+  <si>
+    <t>ST-14</t>
+  </si>
+  <si>
+    <t>SC-SM</t>
   </si>
 </sst>
 </file>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +641,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -641,30 +650,42 @@
         <v>1.45</v>
       </c>
       <c r="D4">
-        <v>3.8</v>
+        <v>11.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>10.9</v>
+      </c>
+      <c r="J4">
+        <v>9.1</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1.5</v>
@@ -672,22 +693,25 @@
       <c r="C5">
         <v>1.95</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -695,25 +719,25 @@
       <c r="C6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D6">
-        <v>6.5</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N6">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -721,22 +745,43 @@
       <c r="C7">
         <v>3.45</v>
       </c>
+      <c r="D7">
+        <v>21.1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>40.4</v>
+      </c>
+      <c r="I7">
+        <v>22.1</v>
+      </c>
+      <c r="J7">
+        <v>18.3</v>
+      </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>4.5</v>
@@ -745,25 +790,28 @@
         <v>4.95</v>
       </c>
       <c r="D8">
-        <v>12.3</v>
+        <v>11.4</v>
+      </c>
+      <c r="E8">
+        <v>2.11</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L8">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N8">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -777,22 +825,31 @@
         <v>6.25</v>
       </c>
       <c r="D9">
-        <v>11.3</v>
+        <v>10.4</v>
+      </c>
+      <c r="E9">
+        <v>2.14</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>28.5</v>
       </c>
       <c r="I9">
-        <v>19.8</v>
+        <v>14.1</v>
       </c>
       <c r="J9">
-        <v>21.2</v>
+        <v>14.4</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -812,13 +869,16 @@
         <v>6.5</v>
       </c>
       <c r="D10">
-        <v>14.2</v>
+        <v>10.1</v>
+      </c>
+      <c r="E10">
+        <v>2.1800000000000002</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L10">
-        <v>22.5</v>
+        <v>225</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -829,141 +889,165 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>6.5</v>
       </c>
       <c r="C11">
-        <v>6.73</v>
+        <v>6.75</v>
       </c>
       <c r="D11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>23.3</v>
-      </c>
-      <c r="I11">
-        <v>13.9</v>
-      </c>
-      <c r="J11">
-        <v>9.4</v>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2.1800000000000002</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L11">
-        <v>22.5</v>
+        <v>75</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="C12">
-        <v>7.63</v>
-      </c>
-      <c r="D12">
-        <v>6.6</v>
-      </c>
-      <c r="F12">
-        <v>84</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
+        <v>7.2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N12">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="C13">
-        <v>9.1</v>
+        <v>7.95</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N13">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>9.32</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>9.32</v>
-      </c>
-      <c r="H14" t="s">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D14">
+        <v>25.8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>97</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>47.8</v>
+      </c>
+      <c r="I14">
+        <v>30.3</v>
+      </c>
+      <c r="J14">
+        <v>17.5</v>
+      </c>
+      <c r="K14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>9.32</v>
+        <v>10.5</v>
       </c>
       <c r="C15">
-        <v>10.51</v>
+        <v>10.75</v>
+      </c>
+      <c r="D15">
+        <v>26.2</v>
+      </c>
+      <c r="E15">
+        <v>1.96</v>
+      </c>
+      <c r="F15">
+        <v>98</v>
+      </c>
+      <c r="G15">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>48.4</v>
+      </c>
+      <c r="I15">
+        <v>31.8</v>
+      </c>
+      <c r="J15">
+        <v>16.600000000000001</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -974,19 +1058,25 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>10.51</v>
+        <v>10.75</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>23.2</v>
+      </c>
+      <c r="E16">
+        <v>2.0299999999999998</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -997,25 +1087,31 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>12.13</v>
+        <v>11.25</v>
+      </c>
+      <c r="D17">
+        <v>23.5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1023,40 +1119,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="C18">
-        <v>13.78</v>
-      </c>
-      <c r="D18">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F18">
-        <v>91</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>28.7</v>
-      </c>
-      <c r="I18">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J18">
-        <v>10.3</v>
+        <v>11.7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N18">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1064,22 +1145,43 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>15.15</v>
+        <v>12.45</v>
+      </c>
+      <c r="D19">
+        <v>21.9</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>52.2</v>
+      </c>
+      <c r="I19">
+        <v>32.9</v>
+      </c>
+      <c r="J19">
+        <v>19.3</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N19">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1087,25 +1189,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="C20">
-        <v>16.52</v>
-      </c>
-      <c r="H20" t="s">
+        <v>13.95</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>38</v>
       </c>
-      <c r="K20" t="s">
-        <v>37</v>
-      </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="N20">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1113,117 +1215,348 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
+        <v>15.45</v>
+      </c>
+      <c r="D21">
+        <v>24.1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N21">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="C22">
-        <v>17.899999999999999</v>
+        <v>16.95</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N22">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>18.32</v>
+        <v>18.45</v>
+      </c>
+      <c r="D23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.9</v>
+      </c>
+      <c r="F23">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>37</v>
+      </c>
+      <c r="H23">
+        <v>43.1</v>
+      </c>
+      <c r="I23">
+        <v>26.1</v>
+      </c>
+      <c r="J23">
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="N23">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>18.32</v>
+        <v>19.5</v>
       </c>
       <c r="C24">
-        <v>19.350000000000001</v>
+        <v>19.95</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N24">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>19.350000000000001</v>
+        <v>21</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>21.45</v>
+      </c>
+      <c r="D25">
+        <v>16.5</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>98</v>
+      </c>
+      <c r="G25">
+        <v>33</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="N25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>22.5</v>
+      </c>
+      <c r="C26">
+        <v>22.93</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>285</v>
+      </c>
+      <c r="N26">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>24.3</v>
+      </c>
+      <c r="D27">
+        <v>15.6</v>
+      </c>
+      <c r="E27">
+        <v>2.11</v>
+      </c>
+      <c r="F27">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="I27">
+        <v>25.1</v>
+      </c>
+      <c r="J27">
+        <v>14.1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>290</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>25.5</v>
+      </c>
+      <c r="C28">
+        <v>25.8</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>290</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>27.15</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>290</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>28.5</v>
+      </c>
+      <c r="C30">
+        <v>28.65</v>
+      </c>
+      <c r="D30">
+        <v>15.4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>97</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>290</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>30.05</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>790</v>
+      </c>
+      <c r="N31">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9C8E4-7863-4007-8A48-77575D3E62B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5936FB-6AC0-4B15-B8FE-FF1C133DCC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +770,7 @@
         <v>39</v>
       </c>
       <c r="L7">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="M7">
         <v>90</v>
@@ -849,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="L9">
-        <v>225</v>
+        <v>22.5</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>40</v>
       </c>
       <c r="L10">
-        <v>225</v>
+        <v>22.5</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="L11">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>24</v>
@@ -1047,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="L15">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>6.3</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>38</v>
       </c>
       <c r="L17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N18">
         <v>26</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N19">
         <v>35</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>47</v>
@@ -1239,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N21">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="N22">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="N23">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="N24">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N25">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="N26">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="N30">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>790</v>
+        <v>95</v>
       </c>
       <c r="N31">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5936FB-6AC0-4B15-B8FE-FF1C133DCC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5C4BD-0793-4EA8-A7D1-4CBB2F5A7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>50</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>50</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>50</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>50</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>50</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>50</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>50</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>50</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>50</v>

--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B5C4BD-0793-4EA8-A7D1-4CBB2F5A7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFBED8-E4E3-49ED-84B3-FE93784D5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Depth, m</t>
   </si>
@@ -101,15 +101,15 @@
     <t>ST-07</t>
   </si>
   <si>
-    <t>ST-08</t>
-  </si>
-  <si>
     <t>SS-10</t>
   </si>
   <si>
     <t>SS-11</t>
   </si>
   <si>
+    <t>SS-14</t>
+  </si>
+  <si>
     <t>SS-15</t>
   </si>
   <si>
@@ -122,42 +122,9 @@
     <t>SS-18</t>
   </si>
   <si>
-    <t>SS-19</t>
-  </si>
-  <si>
-    <t>SS-20</t>
-  </si>
-  <si>
-    <t>SS-21</t>
-  </si>
-  <si>
-    <t>SS-22</t>
-  </si>
-  <si>
-    <t>SS-23</t>
-  </si>
-  <si>
-    <t>SS-24</t>
-  </si>
-  <si>
-    <t>SS-25</t>
-  </si>
-  <si>
-    <t>SS-26</t>
-  </si>
-  <si>
-    <t>SS-27</t>
-  </si>
-  <si>
-    <t>SS-28</t>
-  </si>
-  <si>
     <t>SM</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -176,19 +143,43 @@
     <t>SS-05</t>
   </si>
   <si>
+    <t>SS-08</t>
+  </si>
+  <si>
     <t>SS-09</t>
   </si>
   <si>
-    <t>ST-12</t>
-  </si>
-  <si>
-    <t>ST-13</t>
-  </si>
-  <si>
-    <t>ST-14</t>
-  </si>
-  <si>
-    <t>SC-SM</t>
+    <t>SM/Decomposed Granite</t>
+  </si>
+  <si>
+    <t>No Recovery</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>DB-12</t>
+  </si>
+  <si>
+    <t>DB-13</t>
+  </si>
+  <si>
+    <t>Decomposed Granite</t>
+  </si>
+  <si>
+    <t>SC/Decomposed Granite</t>
+  </si>
+  <si>
+    <t>DB-19</t>
+  </si>
+  <si>
+    <t>DB-20</t>
+  </si>
+  <si>
+    <t>DB-21</t>
+  </si>
+  <si>
+    <t>DB-22</t>
   </si>
 </sst>
 </file>
@@ -552,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +632,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -650,42 +641,30 @@
         <v>1.45</v>
       </c>
       <c r="D4">
-        <v>11.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>10.9</v>
-      </c>
-      <c r="J4">
-        <v>9.1</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1.5</v>
@@ -693,25 +672,22 @@
       <c r="C5">
         <v>1.95</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -719,25 +695,25 @@
       <c r="C6">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="D6">
+        <v>6.5</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -745,43 +721,22 @@
       <c r="C7">
         <v>3.45</v>
       </c>
-      <c r="D7">
-        <v>21.1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>97</v>
-      </c>
-      <c r="G7">
-        <v>78</v>
-      </c>
-      <c r="H7">
-        <v>40.4</v>
-      </c>
-      <c r="I7">
-        <v>22.1</v>
-      </c>
-      <c r="J7">
-        <v>18.3</v>
-      </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N7">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>4.5</v>
@@ -790,28 +745,25 @@
         <v>4.95</v>
       </c>
       <c r="D8">
-        <v>11.4</v>
-      </c>
-      <c r="E8">
-        <v>2.11</v>
+        <v>12.3</v>
       </c>
       <c r="F8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="M8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="N8">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -825,31 +777,22 @@
         <v>6.25</v>
       </c>
       <c r="D9">
-        <v>10.4</v>
-      </c>
-      <c r="E9">
-        <v>2.14</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>32</v>
+        <v>11.3</v>
       </c>
       <c r="H9">
-        <v>28.5</v>
+        <v>41</v>
       </c>
       <c r="I9">
-        <v>14.1</v>
+        <v>19.8</v>
       </c>
       <c r="J9">
-        <v>14.4</v>
+        <v>21.2</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L9">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -869,13 +812,10 @@
         <v>6.5</v>
       </c>
       <c r="D10">
-        <v>10.1</v>
-      </c>
-      <c r="E10">
-        <v>2.1800000000000002</v>
+        <v>14.2</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L10">
         <v>22.5</v>
@@ -889,165 +829,141 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>6.5</v>
       </c>
       <c r="C11">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2.1800000000000002</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>23.3</v>
+      </c>
+      <c r="I11">
+        <v>13.9</v>
+      </c>
+      <c r="J11">
+        <v>9.4</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="C12">
-        <v>7.2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>7.63</v>
+      </c>
+      <c r="D12">
+        <v>6.6</v>
+      </c>
+      <c r="F12">
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="N12">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>7.95</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>9.32</v>
       </c>
       <c r="C14">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="D14">
-        <v>25.8</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>97</v>
-      </c>
-      <c r="G14">
+        <v>9.32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
         <v>39</v>
       </c>
-      <c r="H14">
-        <v>47.8</v>
-      </c>
-      <c r="I14">
-        <v>30.3</v>
-      </c>
-      <c r="J14">
-        <v>17.5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B15">
-        <v>10.5</v>
+        <v>9.32</v>
       </c>
       <c r="C15">
-        <v>10.75</v>
-      </c>
-      <c r="D15">
-        <v>26.2</v>
-      </c>
-      <c r="E15">
-        <v>1.96</v>
-      </c>
-      <c r="F15">
-        <v>98</v>
-      </c>
-      <c r="G15">
-        <v>44</v>
-      </c>
-      <c r="H15">
-        <v>48.4</v>
-      </c>
-      <c r="I15">
-        <v>31.8</v>
-      </c>
-      <c r="J15">
-        <v>16.600000000000001</v>
+        <v>10.51</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1058,25 +974,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>10.75</v>
+        <v>10.51</v>
       </c>
       <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>23.2</v>
-      </c>
-      <c r="E16">
-        <v>2.0299999999999998</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L16">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1087,31 +997,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>11.25</v>
-      </c>
-      <c r="D17">
-        <v>23.5</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
+        <v>12.13</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1119,22 +1023,37 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C18">
-        <v>11.7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>13.78</v>
+      </c>
+      <c r="D18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F18">
+        <v>91</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>28.7</v>
+      </c>
+      <c r="I18">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J18">
+        <v>10.3</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N18">
         <v>50</v>
@@ -1145,40 +1064,19 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>12.45</v>
-      </c>
-      <c r="D19">
-        <v>21.9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>97</v>
-      </c>
-      <c r="G19">
+        <v>15.15</v>
+      </c>
+      <c r="K19" t="s">
         <v>43</v>
       </c>
-      <c r="H19">
-        <v>52.2</v>
-      </c>
-      <c r="I19">
-        <v>32.9</v>
-      </c>
-      <c r="J19">
-        <v>19.3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N19">
         <v>50</v>
@@ -1189,22 +1087,22 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="C20">
-        <v>13.95</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>16.52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N20">
         <v>50</v>
@@ -1215,31 +1113,22 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>15.45</v>
-      </c>
-      <c r="D21">
-        <v>24.1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>97</v>
-      </c>
-      <c r="G21">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N21">
         <v>50</v>
@@ -1247,25 +1136,22 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>16.95</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N22">
         <v>50</v>
@@ -1273,43 +1159,22 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C23">
-        <v>18.45</v>
-      </c>
-      <c r="D23">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="E23">
-        <v>1.9</v>
-      </c>
-      <c r="F23">
-        <v>98</v>
-      </c>
-      <c r="G23">
-        <v>37</v>
-      </c>
-      <c r="H23">
-        <v>43.1</v>
-      </c>
-      <c r="I23">
-        <v>26.1</v>
-      </c>
-      <c r="J23">
-        <v>17</v>
+        <v>18.32</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -1317,25 +1182,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B24">
-        <v>19.5</v>
+        <v>18.32</v>
       </c>
       <c r="C24">
-        <v>19.95</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N24">
         <v>50</v>
@@ -1343,219 +1205,24 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="C25">
-        <v>21.45</v>
-      </c>
-      <c r="D25">
-        <v>16.5</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>98</v>
-      </c>
-      <c r="G25">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>22.5</v>
-      </c>
-      <c r="C26">
-        <v>22.93</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>24.3</v>
-      </c>
-      <c r="D27">
-        <v>15.6</v>
-      </c>
-      <c r="E27">
-        <v>2.11</v>
-      </c>
-      <c r="F27">
-        <v>97</v>
-      </c>
-      <c r="G27">
-        <v>29</v>
-      </c>
-      <c r="H27">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="I27">
-        <v>25.1</v>
-      </c>
-      <c r="J27">
-        <v>14.1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>25.5</v>
-      </c>
-      <c r="C28">
-        <v>25.8</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>27.15</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>28.5</v>
-      </c>
-      <c r="C30">
-        <v>28.65</v>
-      </c>
-      <c r="D30">
-        <v>15.4</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>97</v>
-      </c>
-      <c r="G30">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>30.05</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>50</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
         <v>50</v>
       </c>
     </row>

--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FFBED8-E4E3-49ED-84B3-FE93784D5F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C578A2DB-BF87-40EA-B495-533047659847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
         <v>22.5</v>
       </c>
       <c r="M8">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>38</v>
@@ -862,7 +862,7 @@
         <v>22.5</v>
       </c>
       <c r="M11">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>50</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>50</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>50</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>50</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>50</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>50</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>50</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>50</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N23">
         <v>50</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N24">
         <v>50</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="N25">
         <v>50</v>
